--- a/Data/SourceData.xlsx
+++ b/Data/SourceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks_CommonTestNG_DockerParallel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5003129-390F-41FC-A5D1-8A05D526622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099811D9-BE8C-49A5-8063-2667E04EA274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,19 +30,19 @@
     <t>Molecule</t>
   </si>
   <si>
-    <t>Aflapin 100 Mg+Collagen 40 Mg+Mobilee 40 Mg</t>
-  </si>
-  <si>
-    <t>Air Mattress</t>
-  </si>
-  <si>
-    <t>Albumin (20%)</t>
-  </si>
-  <si>
-    <t>Amoxycillin (500Mg) + Clavulanic Acid (125Mg)</t>
-  </si>
-  <si>
-    <t>Amoxycillin 250 Mg+Clavulanic Acid 125 Mg</t>
+    <t>Aluminium Hydroxide-0.291Gm + Magnesium Hydroxide-98Mg + Oxetacaine-10Mg</t>
+  </si>
+  <si>
+    <t>Ambroxol (60Mg) + Phenylephrine (5Mg) + Levocetirizine (5Mg)</t>
+  </si>
+  <si>
+    <t>Amikacin (500Mg)</t>
+  </si>
+  <si>
+    <t>Amikacin (750Mg)</t>
+  </si>
+  <si>
+    <t>Amoxycillin (1000Mg) + Clavulanic Acid (200Mg)</t>
   </si>
 </sst>
 </file>
@@ -92,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,7 +379,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,27 +393,27 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Data/SourceData.xlsx
+++ b/Data/SourceData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks_CommonTestNG_DockerParallel\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\All Frameworks-20231003T163936Z-001\All Frameworks\QATasks_CommonTestNG_DockerParallel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099811D9-BE8C-49A5-8063-2667E04EA274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDADC382-E3B7-4358-BC2C-9240A9EBA76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Molecule</t>
   </si>
   <si>
-    <t>Aluminium Hydroxide-0.291Gm + Magnesium Hydroxide-98Mg + Oxetacaine-10Mg</t>
-  </si>
-  <si>
-    <t>Ambroxol (60Mg) + Phenylephrine (5Mg) + Levocetirizine (5Mg)</t>
-  </si>
-  <si>
-    <t>Amikacin (500Mg)</t>
-  </si>
-  <si>
-    <t>Amikacin (750Mg)</t>
-  </si>
-  <si>
-    <t>Amoxycillin (1000Mg) + Clavulanic Acid (200Mg)</t>
+    <t>Atracurium Besylate 25 Mg /2.5Ml</t>
+  </si>
+  <si>
+    <t>Avibactam-0.5Gm + Ceftazidime-2Gm</t>
+  </si>
+  <si>
+    <t>Azithromycin (500Mg)</t>
+  </si>
+  <si>
+    <t>Aztreonam (1Gm)</t>
+  </si>
+  <si>
+    <t>Bacillus Clausii 2 Billion</t>
+  </si>
+  <si>
+    <t>Bandage</t>
+  </si>
+  <si>
+    <t>Bed &amp;Pillow Cover</t>
+  </si>
+  <si>
+    <t>Bed Bath</t>
+  </si>
+  <si>
+    <t>Benfotiamine 150 Mg+Elemental Iron 100 Mg+Elemental Zinc 7.5 Mg+L-Methylfolate 1 Mg+Methylcobalamin 1500 Mcg+Pyridoxine 10 Mg+Vitamin D3 1000 Iu</t>
   </si>
 </sst>
 </file>
@@ -92,10 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,45 +387,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
